--- a/Team-Data/2012-13/12-10-2012-13.xlsx
+++ b/Team-Data/2012-13/12-10-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,100 +733,100 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>0.667</v>
+        <v>0.706</v>
       </c>
       <c r="H2" t="n">
         <v>48.3</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>8.4</v>
       </c>
       <c r="M2" t="n">
-        <v>22.7</v>
+        <v>22.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="P2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.71</v>
+        <v>0.696</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>40.1</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
-        <v>22.8</v>
+        <v>23.2</v>
       </c>
       <c r="V2" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y2" t="n">
         <v>4.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.90000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG2" t="n">
         <v>6</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>7</v>
       </c>
       <c r="AH2" t="n">
         <v>20</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
         <v>19</v>
@@ -768,13 +835,13 @@
         <v>8</v>
       </c>
       <c r="AL2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>29</v>
@@ -786,28 +853,28 @@
         <v>28</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AW2" t="n">
         <v>3</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -819,7 +886,7 @@
         <v>16</v>
       </c>
       <c r="BC2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -926,22 +993,22 @@
         <v>0.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -956,7 +1023,7 @@
         <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>11</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -980,10 +1047,10 @@
         <v>2</v>
       </c>
       <c r="AV3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX3" t="n">
         <v>27</v>
@@ -995,13 +1062,13 @@
         <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,10 +1187,10 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
         <v>20</v>
@@ -1135,16 +1202,16 @@
         <v>10</v>
       </c>
       <c r="AM4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
       </c>
       <c r="AP4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
         <v>26</v>
@@ -1180,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -1212,76 +1279,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H5" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I5" t="n">
-        <v>35.1</v>
+        <v>35.3</v>
       </c>
       <c r="J5" t="n">
         <v>83.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>19.1</v>
+        <v>18.7</v>
       </c>
       <c r="N5" t="n">
         <v>0.344</v>
       </c>
       <c r="O5" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R5" t="n">
         <v>11.6</v>
       </c>
       <c r="S5" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T5" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U5" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V5" t="n">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="W5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
         <v>96.3</v>
@@ -1290,13 +1357,13 @@
         <v>-7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
@@ -1314,19 +1381,19 @@
         <v>27</v>
       </c>
       <c r="AL5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ5" t="n">
         <v>13</v>
@@ -1335,37 +1402,37 @@
         <v>14</v>
       </c>
       <c r="AS5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>8</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>2.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
         <v>9</v>
@@ -1484,16 +1551,16 @@
         <v>9</v>
       </c>
       <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
         <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1517,10 +1584,10 @@
         <v>9</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1532,16 +1599,16 @@
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB6" t="n">
         <v>24</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-6.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1666,10 +1733,10 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>2</v>
@@ -1681,10 +1748,10 @@
         <v>9</v>
       </c>
       <c r="AM7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>22</v>
@@ -1693,25 +1760,25 @@
         <v>20</v>
       </c>
       <c r="AQ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR7" t="n">
         <v>2</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV7" t="n">
         <v>26</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
@@ -1723,7 +1790,7 @@
         <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB7" t="n">
         <v>22</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.452</v>
+        <v>0.446</v>
       </c>
       <c r="L8" t="n">
         <v>7.9</v>
@@ -1788,58 +1855,58 @@
         <v>20.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O8" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P8" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R8" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="S8" t="n">
         <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>41.1</v>
+        <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X8" t="n">
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.9</v>
+        <v>22.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
         <v>15</v>
@@ -1851,13 +1918,13 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL8" t="n">
         <v>8</v>
@@ -1872,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>9</v>
@@ -1881,37 +1948,37 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU8" t="n">
         <v>14</v>
       </c>
       <c r="AV8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW8" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -2018,19 +2085,19 @@
         <v>-0.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2042,10 +2109,10 @@
         <v>6</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN9" t="n">
         <v>26</v>
@@ -2069,13 +2136,13 @@
         <v>4</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV9" t="n">
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -2122,82 +2189,82 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>0.304</v>
+        <v>0.318</v>
       </c>
       <c r="H10" t="n">
         <v>48</v>
       </c>
       <c r="I10" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J10" t="n">
-        <v>79.09999999999999</v>
+        <v>79</v>
       </c>
       <c r="K10" t="n">
-        <v>0.443</v>
+        <v>0.445</v>
       </c>
       <c r="L10" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.37</v>
+        <v>0.375</v>
       </c>
       <c r="O10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>24.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.735</v>
+        <v>0.728</v>
       </c>
       <c r="R10" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S10" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="T10" t="n">
         <v>41</v>
       </c>
       <c r="U10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W10" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X10" t="n">
         <v>5.2</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z10" t="n">
         <v>20.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>94.3</v>
+        <v>94.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
@@ -2206,10 +2273,10 @@
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH10" t="n">
         <v>28</v>
@@ -2221,37 +2288,37 @@
         <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>24</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
         <v>10</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR10" t="n">
         <v>17</v>
       </c>
       <c r="AS10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -2304,19 +2371,19 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>0.667</v>
+        <v>0.65</v>
       </c>
       <c r="H11" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I11" t="n">
         <v>37.5</v>
@@ -2328,76 +2395,76 @@
         <v>0.454</v>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M11" t="n">
         <v>19.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.358</v>
+        <v>0.356</v>
       </c>
       <c r="O11" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="P11" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.767</v>
+        <v>0.762</v>
       </c>
       <c r="R11" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S11" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T11" t="n">
         <v>45.5</v>
       </c>
       <c r="U11" t="n">
-        <v>22.3</v>
+        <v>22</v>
       </c>
       <c r="V11" t="n">
         <v>15.9</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
         <v>3.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AA11" t="n">
         <v>20.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE11" t="n">
         <v>6</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>4</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>18</v>
@@ -2412,40 +2479,40 @@
         <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AR11" t="n">
         <v>13</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV11" t="n">
         <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2454,10 +2521,10 @@
         <v>12</v>
       </c>
       <c r="BB11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -2486,103 +2553,103 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>0.45</v>
+        <v>0.474</v>
       </c>
       <c r="H12" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J12" t="n">
-        <v>85.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="K12" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M12" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.347</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="P12" t="n">
-        <v>25.9</v>
+        <v>25.4</v>
       </c>
       <c r="Q12" t="n">
         <v>0.77</v>
       </c>
       <c r="R12" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S12" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
         <v>16.6</v>
       </c>
       <c r="W12" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="X12" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.5</v>
+        <v>103.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK12" t="n">
         <v>21</v>
@@ -2594,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>3</v>
@@ -2606,13 +2673,13 @@
         <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2630,16 +2697,16 @@
         <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -2746,19 +2813,19 @@
         <v>-1</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2779,19 +2846,19 @@
         <v>24</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>8</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2815,13 +2882,13 @@
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB13" t="n">
         <v>30</v>
       </c>
       <c r="BC13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -2928,16 +2995,16 @@
         <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH14" t="n">
         <v>25</v>
@@ -2952,13 +3019,13 @@
         <v>4</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM14" t="n">
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>12</v>
@@ -2970,19 +3037,19 @@
         <v>22</v>
       </c>
       <c r="AR14" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
         <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>3.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3185,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="BC15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>7</v>
       </c>
       <c r="AD16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3304,7 +3371,7 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3313,19 +3380,19 @@
         <v>17</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
         <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP16" t="n">
         <v>10</v>
@@ -3346,13 +3413,13 @@
         <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>5</v>
       </c>
       <c r="G17" t="n">
-        <v>0.737</v>
+        <v>0.722</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,10 +3481,10 @@
         <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.2</v>
+        <v>78.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.497</v>
+        <v>0.493</v>
       </c>
       <c r="L17" t="n">
         <v>8.4</v>
@@ -3426,58 +3493,58 @@
         <v>20.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="O17" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.755</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S17" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>39.2</v>
       </c>
       <c r="U17" t="n">
         <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.6</v>
+        <v>103.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3492,13 +3559,13 @@
         <v>3</v>
       </c>
       <c r="AJ17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
         <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AM17" t="n">
         <v>12</v>
@@ -3507,25 +3574,25 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT17" t="n">
         <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
@@ -3540,13 +3607,13 @@
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC17" t="n">
         <v>6</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>-0.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>11</v>
@@ -3668,7 +3735,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>6</v>
@@ -3695,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
         <v>15</v>
@@ -3704,7 +3771,7 @@
         <v>14</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>6</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>1.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3847,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>25</v>
@@ -3871,7 +3938,7 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4032,19 +4099,19 @@
         <v>27</v>
       </c>
       <c r="AH20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
         <v>13</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>12</v>
       </c>
       <c r="AM20" t="n">
         <v>20</v>
@@ -4056,13 +4123,13 @@
         <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS20" t="n">
         <v>26</v>
@@ -4074,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW20" t="n">
         <v>29</v>
@@ -4089,10 +4156,10 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
         <v>3</v>
@@ -4217,13 +4284,13 @@
         <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,19 +4302,19 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AR21" t="n">
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -4384,19 +4451,19 @@
         <v>9.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -4566,16 +4633,16 @@
         <v>-3.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
       </c>
       <c r="AG23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH23" t="n">
         <v>25</v>
@@ -4584,7 +4651,7 @@
         <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>18</v>
@@ -4632,7 +4699,7 @@
         <v>13</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -4670,46 +4737,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="n">
         <v>9</v>
       </c>
       <c r="G24" t="n">
-        <v>0.571</v>
+        <v>0.55</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>36</v>
+        <v>35.6</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.43</v>
+        <v>0.425</v>
       </c>
       <c r="L24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="M24" t="n">
-        <v>17.8</v>
+        <v>18.1</v>
       </c>
       <c r="N24" t="n">
         <v>0.362</v>
       </c>
       <c r="O24" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="P24" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.756</v>
       </c>
       <c r="R24" t="n">
         <v>11.1</v>
@@ -4718,16 +4785,16 @@
         <v>30.2</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
         <v>21.2</v>
       </c>
       <c r="V24" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>5.4</v>
@@ -4736,22 +4803,22 @@
         <v>5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="AA24" t="n">
         <v>18.1</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.8</v>
+        <v>92.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-1.7</v>
+        <v>-2.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4763,19 +4830,19 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>12</v>
@@ -4784,19 +4851,19 @@
         <v>28</v>
       </c>
       <c r="AP24" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR24" t="n">
         <v>19</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU24" t="n">
         <v>18</v>
@@ -4805,22 +4872,22 @@
         <v>2</v>
       </c>
       <c r="AW24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX24" t="n">
         <v>14</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>13</v>
       </c>
       <c r="AY24" t="n">
         <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>20</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4942,25 +5009,25 @@
         <v>25</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>5</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO25" t="n">
         <v>25</v>
@@ -4969,7 +5036,7 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR25" t="n">
         <v>16</v>
@@ -4987,7 +5054,7 @@
         <v>7</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX25" t="n">
         <v>9</v>
@@ -4999,7 +5066,7 @@
         <v>23</v>
       </c>
       <c r="BA25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -5034,94 +5101,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" t="n">
         <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.429</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="I26" t="n">
         <v>36</v>
       </c>
       <c r="J26" t="n">
-        <v>83</v>
+        <v>82.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L26" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N26" t="n">
-        <v>0.346</v>
+        <v>0.361</v>
       </c>
       <c r="O26" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P26" t="n">
         <v>22.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.754</v>
+        <v>0.747</v>
       </c>
       <c r="R26" t="n">
         <v>12</v>
       </c>
       <c r="S26" t="n">
-        <v>28.5</v>
+        <v>28.1</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="U26" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="W26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y26" t="n">
         <v>4.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="AA26" t="n">
         <v>20.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3.5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AF26" t="n">
         <v>20</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH26" t="n">
         <v>1</v>
@@ -5130,19 +5197,19 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK26" t="n">
         <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AO26" t="n">
         <v>16</v>
@@ -5151,43 +5218,43 @@
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>11</v>
       </c>
       <c r="AS26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AW26" t="n">
         <v>10</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5283,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>0.35</v>
+        <v>0.368</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J27" t="n">
         <v>83.09999999999999</v>
@@ -5240,73 +5307,73 @@
         <v>0.436</v>
       </c>
       <c r="L27" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="M27" t="n">
-        <v>18.3</v>
+        <v>17.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.351</v>
+        <v>0.343</v>
       </c>
       <c r="O27" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="P27" t="n">
-        <v>20.9</v>
+        <v>21.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.746</v>
+        <v>0.751</v>
       </c>
       <c r="R27" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S27" t="n">
         <v>29.9</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U27" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V27" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W27" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="X27" t="n">
         <v>4.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>17</v>
@@ -5318,22 +5385,22 @@
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
         <v>23</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR27" t="n">
         <v>18</v>
@@ -5342,16 +5409,16 @@
         <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,16 +5427,16 @@
         <v>26</v>
       </c>
       <c r="AZ27" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA27" t="n">
         <v>27</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>28</v>
       </c>
       <c r="BB27" t="n">
         <v>21</v>
       </c>
       <c r="BC27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" t="n">
         <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>48.9</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="J28" t="n">
-        <v>83.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.485</v>
+        <v>0.483</v>
       </c>
       <c r="L28" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.376</v>
+        <v>0.37</v>
       </c>
       <c r="O28" t="n">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="P28" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.783</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>42.9</v>
+        <v>42.6</v>
       </c>
       <c r="U28" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="V28" t="n">
-        <v>15.4</v>
+        <v>15.2</v>
       </c>
       <c r="W28" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>5.1</v>
       </c>
-      <c r="Y28" t="n">
-        <v>5.2</v>
-      </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.9</v>
+        <v>104.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,55 +5555,55 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR28" t="n">
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY28" t="n">
         <v>17</v>
@@ -5545,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -5580,121 +5647,121 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" t="n">
         <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" t="n">
-        <v>0.182</v>
+        <v>0.19</v>
       </c>
       <c r="H29" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I29" t="n">
-        <v>35.1</v>
+        <v>35.6</v>
       </c>
       <c r="J29" t="n">
-        <v>83.3</v>
+        <v>83.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.422</v>
+        <v>0.425</v>
       </c>
       <c r="L29" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="M29" t="n">
         <v>21.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.336</v>
+        <v>0.345</v>
       </c>
       <c r="O29" t="n">
         <v>18.1</v>
       </c>
       <c r="P29" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.78</v>
       </c>
       <c r="R29" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U29" t="n">
-        <v>20.4</v>
+        <v>20.7</v>
       </c>
       <c r="V29" t="n">
         <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>5.1</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>95.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-7.5</v>
+        <v>-7</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AK29" t="n">
         <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AO29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ29" t="n">
         <v>7</v>
@@ -5703,22 +5770,22 @@
         <v>21</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
       </c>
       <c r="AW29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>24</v>
@@ -5727,13 +5794,13 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5852,16 +5919,16 @@
         <v>13</v>
       </c>
       <c r="AH30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK30" t="n">
         <v>10</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>11</v>
       </c>
       <c r="AL30" t="n">
         <v>16</v>
@@ -5870,16 +5937,16 @@
         <v>21</v>
       </c>
       <c r="AN30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5894,22 +5961,22 @@
         <v>5</v>
       </c>
       <c r="AV30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW30" t="n">
         <v>12</v>
       </c>
-      <c r="AW30" t="n">
-        <v>11</v>
-      </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>8</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE31" t="n">
         <v>30</v>
@@ -6034,13 +6101,13 @@
         <v>30</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI31" t="n">
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6061,13 +6128,13 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>12</v>
       </c>
       <c r="AS31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
         <v>14</v>
@@ -6076,28 +6143,28 @@
         <v>22</v>
       </c>
       <c r="AV31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ31" t="n">
         <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>29</v>
       </c>
       <c r="BC31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-10-2012-13</t>
+          <t>2012-12-10</t>
         </is>
       </c>
     </row>
